--- a/Load/ontology/Gates/GEMS/doc/raw_detection_gems.xlsx
+++ b/Load/ontology/Gates/GEMS/doc/raw_detection_gems.xlsx
@@ -1,34 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lindsabr\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezheng/Documents/EuPathDB-git/ApiCommonData/Load/ontology/Gates/GEMS/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EF4A94-2FD7-4E85-8696-A5B138527AF8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91FBEA2-AF59-014E-B5A9-C556AA5EB822}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_detection_template" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="188">
   <si>
     <t>variable</t>
   </si>
@@ -609,6 +601,12 @@
   </si>
   <si>
     <t>sen</t>
+  </si>
+  <si>
+    <t>JZ comments</t>
+  </si>
+  <si>
+    <t>contain extra whitespace in website label, need to check formula.</t>
   </si>
 </sst>
 </file>
@@ -1106,7 +1104,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1116,6 +1114,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1471,16 +1473,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O75"/>
+  <dimension ref="A1:P75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
@@ -1500,7 +1502,7 @@
     <col min="16" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1543,8 +1545,11 @@
       <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="93" x14ac:dyDescent="0.35">
+      <c r="P1" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
@@ -1573,7 +1578,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1612,7 +1617,7 @@
         <v>Raw bacteria data for stool</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -1643,7 +1648,7 @@
         <v>Raw bacteria data for stool</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -1673,8 +1678,11 @@
         <f t="shared" si="1"/>
         <v>Raw bacteria data for stool</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+      <c r="P5" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1704,8 +1712,11 @@
         <f t="shared" si="1"/>
         <v>Raw bacteria data for stool</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+      <c r="P6" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -1735,8 +1746,11 @@
         <f t="shared" si="1"/>
         <v>Raw bacteria data for stool</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+      <c r="P7" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1766,8 +1780,11 @@
         <f t="shared" si="1"/>
         <v>Raw bacteria data for stool</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+      <c r="P8" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1802,7 +1819,7 @@
         <v>Raw bacteria data for stool</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -1831,7 +1848,15 @@
         <v>175</v>
       </c>
       <c r="N10" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($H10="",$G10,"")
+&amp;IF($H10&lt;&gt;"",$H10,"")
+&amp;IF(AND($L10="LT",I10="ST")," LT-neg ST-pos",
+IF($I10&lt;&gt;""," "&amp;$I10,"")
+&amp;IF(OR($I10="LT",$I10="ST",AND($D10="",$I10&lt;&gt;"")),"-pos","")
+&amp;IF($K10&lt;&gt;""," "&amp;$K10,"")
+&amp;IF($J10&lt;&gt;""," "&amp;$J10&amp;"-pos","")
+&amp;IF($L10&lt;&gt;""," "&amp;$L10&amp;"-neg",""))
+&amp;IF($D10&lt;&gt;""," "&amp;$D10,"")&amp;", by "&amp;$C10&amp;" result"</f>
         <v>EAEC aaiC Ct value, by TAC result</v>
       </c>
       <c r="O10" s="4" t="str">
@@ -1839,7 +1864,7 @@
         <v>Raw bacteria data for stool</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -1874,7 +1899,7 @@
         <v>Raw bacteria data for stool</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -1911,7 +1936,7 @@
         <v>Raw bacteria data for stool</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -1948,7 +1973,7 @@
         <v>Raw bacteria data for stool</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -1982,7 +2007,7 @@
         <v>Raw bacteria data for stool</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -2017,7 +2042,7 @@
         <v>Raw bacteria data for stool</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -2054,7 +2079,7 @@
         <v>Raw bacteria data for stool</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -2089,7 +2114,7 @@
         <v>Raw bacteria data for stool</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -2123,7 +2148,7 @@
         <v>Raw bacteria data for stool</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -2152,7 +2177,7 @@
         <v>Raw bacteria data for stool</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -2186,7 +2211,7 @@
         <v>Raw bacteria data for stool</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -2221,7 +2246,7 @@
         <v>Raw bacteria data for stool</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -2258,7 +2283,7 @@
         <v>Raw bacteria data for stool</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -2293,7 +2318,7 @@
         <v>Raw bacteria data for stool</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>62</v>
       </c>
@@ -2330,7 +2355,7 @@
         <v>Raw bacteria data for stool</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>63</v>
       </c>
@@ -2367,7 +2392,7 @@
         <v>Raw bacteria data for stool</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -2407,7 +2432,7 @@
         <v>Raw bacteria data for stool</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -2444,7 +2469,7 @@
         <v>Raw bacteria data for stool</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -2479,7 +2504,7 @@
         <v>Raw bacteria data for stool</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>67</v>
       </c>
@@ -2514,7 +2539,7 @@
         <v>Raw bacteria data for stool</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>68</v>
       </c>
@@ -2551,7 +2576,7 @@
         <v>Raw bacteria data for stool</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -2586,7 +2611,7 @@
         <v>Raw bacteria data for stool</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -2623,7 +2648,7 @@
         <v>Raw bacteria data for stool</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -2657,7 +2682,7 @@
         <v>Raw bacteria data for stool</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -2687,8 +2712,11 @@
         <f t="shared" si="1"/>
         <v>Raw bacteria data for stool</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+      <c r="P34" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>73</v>
       </c>
@@ -2728,7 +2756,7 @@
         <v>Raw bacteria data for stool</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>74</v>
       </c>
@@ -2758,8 +2786,11 @@
         <f t="shared" si="3"/>
         <v>Raw bacteria data for stool</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+      <c r="P36" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>75</v>
       </c>
@@ -2790,7 +2821,7 @@
         <v>Raw bacteria data for stool</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -2821,7 +2852,7 @@
         <v>Raw bacteria data for stool</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -2852,7 +2883,7 @@
         <v>Raw eukaryota data for stool</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -2883,7 +2914,7 @@
         <v>Raw eukaryota data for stool</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -2914,7 +2945,7 @@
         <v>Raw eukaryota data for stool</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -2945,7 +2976,7 @@
         <v>Raw eukaryota data for stool</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>81</v>
       </c>
@@ -2976,7 +3007,7 @@
         <v>Raw eukaryota data for stool</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>82</v>
       </c>
@@ -3007,7 +3038,7 @@
         <v>Raw eukaryota data for stool</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>83</v>
       </c>
@@ -3038,7 +3069,7 @@
         <v>Raw eukaryota data for stool</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>84</v>
       </c>
@@ -3069,7 +3100,7 @@
         <v>Raw eukaryota data for stool</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>85</v>
       </c>
@@ -3100,7 +3131,7 @@
         <v>Raw eukaryota data for stool</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>86</v>
       </c>
@@ -3131,7 +3162,7 @@
         <v>Raw eukaryota data for stool</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>87</v>
       </c>
@@ -3162,7 +3193,7 @@
         <v>Raw eukaryota data for stool</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>88</v>
       </c>
@@ -3193,7 +3224,7 @@
         <v>Raw eukaryota data for stool</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>89</v>
       </c>
@@ -3224,7 +3255,7 @@
         <v>Raw eukaryota data for stool</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>90</v>
       </c>
@@ -3255,7 +3286,7 @@
         <v>Raw eukaryota data for stool</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>91</v>
       </c>
@@ -3286,7 +3317,7 @@
         <v>Raw eukaryota data for stool</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>92</v>
       </c>
@@ -3317,7 +3348,7 @@
         <v>Raw eukaryota data for stool</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>93</v>
       </c>
@@ -3348,7 +3379,7 @@
         <v>Raw virus data for stool</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>94</v>
       </c>
@@ -3379,7 +3410,7 @@
         <v>Raw virus data for stool</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>95</v>
       </c>
@@ -3410,7 +3441,7 @@
         <v>Raw virus data for stool</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>96</v>
       </c>
@@ -3441,7 +3472,7 @@
         <v>Raw virus data for stool</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>97</v>
       </c>
@@ -3472,7 +3503,7 @@
         <v>Raw virus data for stool</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>98</v>
       </c>
@@ -3503,7 +3534,7 @@
         <v>Raw virus data for stool</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>99</v>
       </c>
@@ -3534,7 +3565,7 @@
         <v>Raw virus data for stool</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>100</v>
       </c>
@@ -3565,7 +3596,7 @@
         <v>Raw virus data for stool</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>101</v>
       </c>
@@ -3596,7 +3627,7 @@
         <v>Raw virus data for stool</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>102</v>
       </c>
@@ -3627,7 +3658,7 @@
         <v>Raw virus data for stool</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>103</v>
       </c>
@@ -3658,7 +3689,7 @@
         <v>Raw virus data for stool</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>104</v>
       </c>
@@ -3697,7 +3728,7 @@
         <v>Raw virus data for stool</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>105</v>
       </c>
@@ -3728,7 +3759,7 @@
         <v>Raw virus data for stool</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>106</v>
       </c>
@@ -3759,7 +3790,7 @@
         <v>Raw virus data for stool</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>107</v>
       </c>
@@ -3790,7 +3821,7 @@
         <v>Raw virus data for stool</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>108</v>
       </c>
@@ -3821,7 +3852,7 @@
         <v>Raw virus data for stool</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>109</v>
       </c>
@@ -3852,7 +3883,7 @@
         <v>Raw virus data for stool</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>110</v>
       </c>
@@ -3883,7 +3914,7 @@
         <v>Raw virus data for stool</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>111</v>
       </c>
@@ -3914,7 +3945,7 @@
         <v>Raw virus data for stool</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>112</v>
       </c>
@@ -3945,7 +3976,7 @@
         <v>Raw virus data for stool</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>113</v>
       </c>
